--- a/medicine/Mort/Peine_de_mort_en_Suisse/Peine_de_mort_en_Suisse.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Suisse/Peine_de_mort_en_Suisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En Suisse, la peine de mort est interdite par la Constitution fédérale. 
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire et abolition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La peine de mort en Suisse était exécutée par décapitation (généralement à la guillotine[Quand ?])[1]. La peine de mort pour les crimes de droit commun a été une première fois abolie en 1874, puis réintroduite dans la Constitution à la suite d'un référendum en 1879, la proposition ayant recueilli 52,5 % des voix[2],[3]. L'universitaire Paolo Passaglia relève que « le sujet resta, toutefois, très débattu, et les réserves contre l'application de la peine de mort restèrent très fortes, ce qui est prouvé par le nombre restreint (neuf, au total) des exécutions entre 1879 et 1940 »[3].
-En 1938, le peuple adopte par 53,5 % des voix, un nouveau code pénal qui prévoit, entre autres, l'abolition de la peine de mort pour les crimes de droit commun, et entrera en vigueur le 1er janvier 1942[4],[3]. Paolo Passaglia relève que « la majorité était claire, mais loin d'être plébiscitaire, surtout en raison du fait que les rétentionnistes étaient en majorité dans un bon nombre de Cantons, voire dans la plupart de ceux-ci »[3]. La dernière exécution, celle d'Hans Vollenweider, intervient le 18 octobre 1940 dans le canton d'Obwald — où la cause rétentionniste avait obtenu près des quatre cinquièmes des suffrages lors du référendum —, plus d'un an avant l'entrée en vigueur de la réforme du Code pénal[3],[5]. Selon Paolo Passaglia, l'abolition de la peine de mort en Suisse « a été le résultat d'une majorité populaire étroite qui a basculé au cours des décennies, grâce à plusieurs facteurs, parmi lesquels figure certainement la raréfaction des exécutions, qui a progressivement privé les rétentionnistes de l'argument selon lequel la peine capitale est un instrument indispensable pour lutter contre la criminalité »[3].
-Durant la Seconde Guerre mondiale, 17 personnes, parmi eux des membres de l'armée suisse, des civils ainsi que des étrangers, sont fusillés pour trahison. Cette dernière clause punissable de la peine de mort (droit pénal militaire) est à son tour abolie en 1992[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La peine de mort en Suisse était exécutée par décapitation (généralement à la guillotine[Quand ?]). La peine de mort pour les crimes de droit commun a été une première fois abolie en 1874, puis réintroduite dans la Constitution à la suite d'un référendum en 1879, la proposition ayant recueilli 52,5 % des voix,. L'universitaire Paolo Passaglia relève que « le sujet resta, toutefois, très débattu, et les réserves contre l'application de la peine de mort restèrent très fortes, ce qui est prouvé par le nombre restreint (neuf, au total) des exécutions entre 1879 et 1940 ».
+En 1938, le peuple adopte par 53,5 % des voix, un nouveau code pénal qui prévoit, entre autres, l'abolition de la peine de mort pour les crimes de droit commun, et entrera en vigueur le 1er janvier 1942,. Paolo Passaglia relève que « la majorité était claire, mais loin d'être plébiscitaire, surtout en raison du fait que les rétentionnistes étaient en majorité dans un bon nombre de Cantons, voire dans la plupart de ceux-ci ». La dernière exécution, celle d'Hans Vollenweider, intervient le 18 octobre 1940 dans le canton d'Obwald — où la cause rétentionniste avait obtenu près des quatre cinquièmes des suffrages lors du référendum —, plus d'un an avant l'entrée en vigueur de la réforme du Code pénal,. Selon Paolo Passaglia, l'abolition de la peine de mort en Suisse « a été le résultat d'une majorité populaire étroite qui a basculé au cours des décennies, grâce à plusieurs facteurs, parmi lesquels figure certainement la raréfaction des exécutions, qui a progressivement privé les rétentionnistes de l'argument selon lequel la peine capitale est un instrument indispensable pour lutter contre la criminalité ».
+Durant la Seconde Guerre mondiale, 17 personnes, parmi eux des membres de l'armée suisse, des civils ainsi que des étrangers, sont fusillés pour trahison. Cette dernière clause punissable de la peine de mort (droit pénal militaire) est à son tour abolie en 1992.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Situation actuelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui la Suisse est signataire de divers traités interdisant la peine de mort, notamment :
 Pacte international relatif aux droits civils et politiques - ratifié le 18 juin 1992
@@ -585,11 +601,13 @@
           <t>Tentatives de rétablissement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1979, le Conseil national rejette par 131 voix contre 3 une initiative parlementaire de Valentin Oehen réclamant la réintroduction de la peine de mort pour l'assassinat et la prise d'otages[7].
-En 1985, une initiative populaire visant à rétablir la peine de mort pour les trafiquants de drogue n'avait pas recueilli le nombre nécessaire de signatures pour être soumise au vote du peuple[8].
-En août 2010, une nouvelle initiative populaire visant à rétablir la peine de mort en cas de meurtre ou assassinat accompagné de violences sexuelles est retirée par ses proposants quelques jours après avoir été validée par la Chancellerie fédérale[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1979, le Conseil national rejette par 131 voix contre 3 une initiative parlementaire de Valentin Oehen réclamant la réintroduction de la peine de mort pour l'assassinat et la prise d'otages.
+En 1985, une initiative populaire visant à rétablir la peine de mort pour les trafiquants de drogue n'avait pas recueilli le nombre nécessaire de signatures pour être soumise au vote du peuple.
+En août 2010, une nouvelle initiative populaire visant à rétablir la peine de mort en cas de meurtre ou assassinat accompagné de violences sexuelles est retirée par ses proposants quelques jours après avoir été validée par la Chancellerie fédérale.
 </t>
         </is>
       </c>
@@ -619,6 +637,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
